--- a/api-doc/combobox.xlsx
+++ b/api-doc/combobox.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16488" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16525" uniqueCount="114">
   <si>
     <t>名字</t>
   </si>
@@ -291,15 +291,7 @@
     <t>groupFormatter</t>
   </si>
   <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dependenciesParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[id1,id2,id3...]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -319,14 +311,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record(当前行记录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loader</t>
-  </si>
-  <si>
-    <t>params, success, error</t>
   </si>
   <si>
     <t>远程加载方法（参数，成功回调，失败回调）</t>
@@ -340,7 +325,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadData</t>
+  </si>
+  <si>
     <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受外部数据渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comboTarget</t>
+  </si>
+  <si>
+    <t>返回模拟文本框容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setValues</t>
+  </si>
+  <si>
+    <t>为组件赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string/array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setValue</t>
+  </si>
+  <si>
+    <t>getValue</t>
+  </si>
+  <si>
+    <t>getValues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>取组件显示文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取组件value值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>重新加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json/string(url)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixPosition</t>
+  </si>
+  <si>
+    <t>组件定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>清空文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>string(value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据value值选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unselect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据value值取消选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrollTo</t>
+  </si>
+  <si>
+    <t>根据value值显示在可视范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>打开组件下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭组件下拉框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -54204,19 +54304,59 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="2"/>
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="2"/>
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="2"/>
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D23" s="2"/>
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D24" s="2"/>
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D25" s="2"/>
@@ -54259,7 +54399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -54360,10 +54500,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -54386,57 +54526,143 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/api-doc/combobox.xlsx
+++ b/api-doc/combobox.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16525" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16529" uniqueCount="118">
   <si>
     <t>名字</t>
   </si>
@@ -441,6 +441,21 @@
   </si>
   <si>
     <t>关闭组件下拉框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel</t>
+  </si>
+  <si>
+    <t>获取组件配置项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取组件下拉框容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54500,10 +54515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -54526,147 +54541,164 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>